--- a/public/files/template/inventory/lap_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_pengadaan.xlsx
@@ -122,7 +122,7 @@
     <t>[a.keterangan]</t>
   </si>
   <si>
-    <t>DARI TANGGAL [b.tanggal_export1] S/D [b.tanggal_export1]</t>
+    <t>DARI TANGGAL [b.tanggal_export] S/D [b.tanggal_export1]</t>
   </si>
 </sst>
 </file>
@@ -233,9 +233,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,13 +250,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,7 +545,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,181 +597,181 @@
       <c r="D4" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>5</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>6</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>7</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>8</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>10</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>11</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
         <v>31</v>
       </c>
     </row>

--- a/public/files/template/inventory/lap_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_pengadaan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>SOPD</t>
   </si>
@@ -35,60 +35,12 @@
     <t>KABUPATEN</t>
   </si>
   <si>
-    <t>: GARUT</t>
-  </si>
-  <si>
     <t>PROVINSI</t>
   </si>
   <si>
-    <t>: JAWA BARAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">DAFTAR PENGADAAN BARANG </t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>ASAL PEROLEHAN</t>
-  </si>
-  <si>
-    <t>TANGGAL</t>
-  </si>
-  <si>
-    <t>NOMOR</t>
-  </si>
-  <si>
-    <t>BANYAKNYA BARANG</t>
-  </si>
-  <si>
-    <t>JUMLAH HARGA</t>
-  </si>
-  <si>
-    <t>JENIS /NAMA BARANG</t>
-  </si>
-  <si>
-    <t>SPK / PENJANJIAN KONTRAK</t>
-  </si>
-  <si>
-    <t>DPA / SPM / KWITANSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANGGAL </t>
-  </si>
-  <si>
-    <t>JUMLAH</t>
-  </si>
-  <si>
-    <t>HARGA SATUAN</t>
-  </si>
-  <si>
-    <t>DIPERGUNAKAN PADA UNIT</t>
-  </si>
-  <si>
-    <t>KETERANGAN</t>
-  </si>
-  <si>
     <t>9 = ( 7 X 8 )</t>
   </si>
   <si>
@@ -123,6 +75,51 @@
   </si>
   <si>
     <t>DARI TANGGAL [b.tanggal_export] S/D [b.tanggal_export1]</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Jenis / Nama Barang</t>
+  </si>
+  <si>
+    <t>SPK / Pernjanjian Kontrak</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Banyaknya Barang</t>
+  </si>
+  <si>
+    <t>Harga Satuan</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>DPA / SPM / Kwitansi</t>
+  </si>
+  <si>
+    <t>Jumlah Harga</t>
+  </si>
+  <si>
+    <t>Dipergunakan pada Unit</t>
+  </si>
+  <si>
+    <t>Asal Perolehan</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>: [b.kd_kab]</t>
+  </si>
+  <si>
+    <t>: [b.kd_prov]</t>
   </si>
 </sst>
 </file>
@@ -132,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,11 +159,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,21 +166,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -211,55 +197,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,228 +581,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="F11" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="10" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="G11" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11">
-        <v>6</v>
-      </c>
-      <c r="G12" s="11">
-        <v>7</v>
-      </c>
-      <c r="H12" s="11">
-        <v>8</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="11">
-        <v>10</v>
-      </c>
-      <c r="K12" s="11">
-        <v>11</v>
-      </c>
-      <c r="L12" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:K11"/>
+  <mergeCells count="14">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/files/template/inventory/lap_pengadaan.xlsx
+++ b/public/files/template/inventory/lap_pengadaan.xlsx
@@ -32,9 +32,6 @@
     <t>: DINAS KESEHATAN</t>
   </si>
   <si>
-    <t>KABUPATEN</t>
-  </si>
-  <si>
     <t>PROVINSI</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>: [b.kd_prov]</t>
+  </si>
+  <si>
+    <t>KOTA</t>
   </si>
 </sst>
 </file>
@@ -240,42 +240,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,7 +561,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,152 +581,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="2">
         <v>10</v>
@@ -768,40 +768,47 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
@@ -809,13 +816,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
